--- a/BD y Archivos importados/lista_profesores.xlsx
+++ b/BD y Archivos importados/lista_profesores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\ProyectoCalidad\BD y Archivos importados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{753409CA-9FD3-485C-BDE7-F30EBA005B5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCCB22B-56F5-4D1E-8B42-3C78C7C3CFB6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>RUT</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Torres</t>
-  </si>
-  <si>
-    <t>hombre</t>
   </si>
   <si>
     <t>jtores@gmail.com</t>
@@ -446,7 +443,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -490,37 +487,37 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
         <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>123456</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
